--- a/Data_processed/industry/laminates.xlsx
+++ b/Data_processed/industry/laminates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:CW6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,495 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>..1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>..2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>human tox</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>fossil tra</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>carbon</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ced</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>renewable</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>recipe2016</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.5</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>global warming,</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>stratospheric</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>ionizing</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation,</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>fine particulate</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation, .1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>human .1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>human .2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>land use</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>mineral resource</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>fossil resource</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption, .1</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>ef 3.1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>acidification</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>climate change</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>particulate</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication, .1</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity,</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity, non-cancer</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>ionising radiation</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>land use.1</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>ozone depletion</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>photochemical ozone formation</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,.1</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>water use</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>traci</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>traci.1</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>traci.2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>traci.3</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>traci.4</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>traci.5</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>traci.6</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>traci.7</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>traci.8</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>traci.9</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>carbon</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>pollutants</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity.1</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>classyfire</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>chemicals,plastics, and wood</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>note:</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 107</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 110</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 118</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
@@ -478,18 +953,297 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>A.090.01.101</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Materials, laminates</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Glare 1-3/2-0.3</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>3.480290549946</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1413536091</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.419154662809</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.786529778037</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.1332525</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.18561144</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.12598397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.11893266</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.011177375</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0097759695</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0014676046</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.027593689</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.67987514</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.079905567</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.10664102</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5.9996809e-05</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.3618037e-05</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>14.22168333333333</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="Z2" t="n">
+        <v>209.93916</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>180.99419</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>10.798578</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2.0946556</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5.6269959</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>10.424741</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.38299248</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.36172487</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.012608145</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0086594645</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.1686143e-05</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>4.6627757e-08</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.2128102</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.3238367e-05</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>3.9944058e-08</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.091279e-12</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1.8989247e-09</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1.1898474e-08</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>4.3366519e-06</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1.782105e-09</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>4.8310269e-09</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.1013967e-11</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>7.1735098e-15</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2.6217799e-12</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>2.1469337e-11</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>4.3630257e-12</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>4.0645967e-06</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>3.2729838e-08</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.231442e-20</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.02966137</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1.1831488</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.00081101779</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>3.6863085e-05</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.00039653827</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>3.2518379e-06</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>3.4679474e-05</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>7.0066305e-06</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.0353804e-06</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1.0605135e-05</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1.3167576e-05</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1.2540122e-06</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2.7231769e-17</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>2.229776e-13</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>2.4491473e-05</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.00023325469</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>4.8870228e-05</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1.8873129e-13</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>14.202282</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.2202173</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.026833446</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.0035835699</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.749304e-06</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>6.3080754e-08</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.0014504109</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>24.584774</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>16.782961</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>2.1332525</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.4805427081</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.339202717037</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.419154662809</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.78651616</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>laminates.xlsx</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -508,18 +1262,297 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>A.090.01.102</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Materials, laminates</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Glare 3-3/2-0.2</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>2.692943003572</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1063868312</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.329621243859</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.566397228513</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.6905377</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1332358</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.09543776800000001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.091692441</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.009805594000000001</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0036618266</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0012269696</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.021154437</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.47189379</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.07974827700000001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.094490085</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4.4961859e-05</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.3353513e-05</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>11.27025133333333</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="Z3" t="n">
+        <v>175.49941</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>150.25051</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.922366800000001</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.997748</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>4.9709481</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8.3578375</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2631909</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.24603486</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.009858310800000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0072977293</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.4750291e-05</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3.645825e-08</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.0220909</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.0487531e-05</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>3.1643938e-08</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>8.6452191e-13</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.2872458e-09</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>8.721954000000001e-09</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.13456e-06</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.3200191e-09</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3.4682884e-09</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>9.6605274e-12</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>3.5861991e-15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>9.5644227e-13</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1.219327e-11</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>2.3265036e-12</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1.0940425e-06</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>2.414876e-08</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>9.018526299999999e-21</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.021137261</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1.0009537</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0006352238</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2.6466215e-05</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.0003142445</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>2.4951176e-06</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>2.6486692e-05</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>5.0285871e-06</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>2.3357119e-07</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>7.6181303e-06</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>4.9541884e-06</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1.0708084e-06</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1.994332e-17</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1.6329875e-13</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1.8788615e-05</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.00019467912</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3.3158246e-05</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>1.3821829e-13</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>11.25611</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.15576778</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.019265587</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.0027345498</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>4.6994263e-07</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>4.3914783e-08</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.0010763938</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>10.999922</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>14.348925</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>1.6905377</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.3562148362000001</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.249841358513</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.329621243859</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.566383875</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>laminates.xlsx</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -538,18 +1571,297 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>A.090.01.103</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Materials, laminates</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Glare 3-6/5-0.4</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>2.2401107929163</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0915642306</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.275545551008</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5948109113083</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.2781901</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.12145657</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.085881423</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.07992479500000001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0073135434</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0031923086</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0011335836</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.010226485</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.54532015</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.05793877</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.049480813</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4.2303008e-05</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.948308299999999e-06</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>8.521267333333334</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="Z4" t="n">
+        <v>110.15952</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>94.708164</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4.2523841</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.76761362</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2.9615696</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>7.469792</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.21511962</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2033582</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0077356438</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0040257788</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.2191738e-05</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2.860815e-08</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.56383457</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7.9410374e-06</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2.3960637e-08</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>6.5459748e-13</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.4916313e-09</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>9.122290900000001e-09</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.9539527e-06</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1.3343695e-09</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>3.2938244e-09</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1.0049877e-11</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>4.1468172e-15</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>9.491777299999999e-13</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>6.3606956e-12</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1.3013345e-12</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1.2587613e-06</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>2.7373003e-08</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>9.947366599999999e-21</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.024336073</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.5394985</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.00048128947</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.5557299e-05</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.00023759554</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1.2063391e-06</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>2.3037129e-05</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>5.6073335e-06</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>2.4087693e-07</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>8.494303100000001e-06</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>4.3138057e-06</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>9.1504573e-07</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2.1997332e-17</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1.8011729e-13</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1.6427608e-05</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.00012043379</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>3.7460399e-05</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1.5245373e-13</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>8.504879600000001</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.17405865</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.018777136</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.0016470957</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>5.3996205e-07</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>4.1533391e-08</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.00095729931</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>7.4227513</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>7.4547328</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>1.2781901</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.3091287086</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.2175744263083</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.275545551008</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.594800963</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>laminates.xlsx</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -568,18 +1880,297 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>A.090.01.104</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Materials, laminates</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Glare 4-6/5-0.4</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>8.006480884276</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3265276376</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.09860197545</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.057106971226</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.5242443</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.45374431</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.30535002</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.28385083</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.027018233</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.011471697</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0041868776</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.040211364</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.881776</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.29914857</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.17528074</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.00014771145</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.0231226e-05</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>30.16162866666667</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="Z5" t="n">
+        <v>390.83567</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>335.41695</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>14.695006</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.6926062</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.221683</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>27.809416</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.7672762400000001</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.72524279</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.027528084</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.014505366</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>4.3479784e-05</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.0180504e-07</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.0315638</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.8104907e-05</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.480139400000001e-08</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2.3167526e-12</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>5.1474077e-09</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>3.2498117e-08</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.0898235e-05</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>4.7527175e-09</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.2180632e-08</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.7974068e-11</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1.4335071e-14</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>3.4322358e-12</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>2.2054373e-11</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>4.5100856e-12</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>4.3437475e-06</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>9.5247695e-08</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>3.5757624e-20</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.08397861099999999</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>1.9475852</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.0017121593</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>9.412888500000001e-05</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.00084098624</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>4.7399039e-06</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>8.5464273e-05</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>1.9982211e-05</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>9.1692436e-07</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>3.0271991e-05</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1.5516301e-05</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>3.5102317e-06</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>7.9073424e-17</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>6.4746446e-13</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>5.8554257e-05</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.00042604704</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.00013204102</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>5.4802275e-13</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>30.105079</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.61918602</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.069002435</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.0058411988</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>1.8633569e-06</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>1.5273745e-07</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.0035250317</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>25.676003</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>26.89813</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>4.5242443</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>1.1258333316</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.799355925226</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>1.09860197545</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>2.05705674</v>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>laminates.xlsx</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -598,18 +2189,297 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>A.090.01.105</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Materials, laminates</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m2 </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Hylite (1 m2  1.2 mm thickness  1.8 ton/m3)</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>4.540659025498</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.018195435918</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.35088098958</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.2593521</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.9122305</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.3438831</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.00060806408</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.00089914196</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.017040495</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.8523388e-05</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.00017727557</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0063898255</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.0540111</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.097758</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.107583</v>
+      </c>
+      <c r="Y6" t="n">
         <v>12.74820333333333</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="Z6" t="n">
+        <v>229.36719</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>216.42219</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.66384923</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.63590594</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.017988135</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0099551559</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3.8123857e-05</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>6.652416799999999e-08</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.3942795</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.1840296e-05</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>3.5724571e-08</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9.7604668e-13</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.8580666e-09</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>8.402063299999999e-11</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.6279944e-05</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.5208292e-11</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>3.0587177e-08</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.9593102e-10</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>2.264555e-15</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>2.3007212e-13</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>6.0506247e-14</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1.1201168e-14</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>9.8790041e-10</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>6.8669287e-10</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.0055870436</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1.3886925</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.0010022451</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.00019606118</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.00035545374</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>7.4901669e-07</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.00016148236</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>3.7452534e-08</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>7.9355155e-08</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>6.1951952e-08</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>1.0537289e-07</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>1.1811362e-07</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>1.2894822e-05</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.00027520174</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>12.753974</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.0012499785</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.14325437</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.0020203018</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>1.2401461e-11</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>3.967365e-10</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.0081957644</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.016233118</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>19.537805</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>1.9122305</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>1.369076425498</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>1.35088098958</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>1.35088098958</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>1.2593521</v>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>laminates.xlsx</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
         <is>
           <t>Global</t>
         </is>

--- a/Data_processed/industry/laminates.xlsx
+++ b/Data_processed/industry/laminates.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/laminates.xlsx
+++ b/Data_processed/industry/laminates.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/laminates.xlsx
+++ b/Data_processed/industry/laminates.xlsx
@@ -136,6 +136,51 @@
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.480290549946</v>
+        <v>14.22168333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>14.22168333333333</v>
+        <v>209.93916</v>
       </c>
       <c r="F2" t="n">
-        <v>209.93916</v>
+        <v>0.00039653827</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.692943003572</v>
+        <v>11.27025133333333</v>
       </c>
       <c r="E3" t="n">
-        <v>11.27025133333333</v>
+        <v>175.49941</v>
       </c>
       <c r="F3" t="n">
-        <v>175.49941</v>
+        <v>0.0003142445</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.2401107929163</v>
+        <v>8.521267333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>8.521267333333334</v>
+        <v>110.15952</v>
       </c>
       <c r="F4" t="n">
-        <v>110.15952</v>
+        <v>0.00023759554</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.006480884276</v>
+        <v>30.16162866666667</v>
       </c>
       <c r="E5" t="n">
-        <v>30.16162866666667</v>
+        <v>390.83567</v>
       </c>
       <c r="F5" t="n">
-        <v>390.83567</v>
+        <v>0.00084098624</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.540659025498</v>
+        <v>12.74820333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>12.74820333333333</v>
+        <v>229.36719</v>
       </c>
       <c r="F6" t="n">
-        <v>229.36719</v>
+        <v>0.00035545374</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,5 +672,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>